--- a/biology/Botanique/Hippocrepis_comosa/Hippocrepis_comosa.xlsx
+++ b/biology/Botanique/Hippocrepis_comosa/Hippocrepis_comosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fer à cheval, Hippocrépide à toupet, Hippocrépide chevelue, Hippocrépis à toupet, Hippocrépis chevelu
 L’Hippocrépide à toupet,  Hippocrépide chevelue, Hippocrépis à toupet ou Hippocrépis chevelu (Hippocrepis comosa) est une plante herbacée vivace de la famille des Fabaceae. Il est parfois connu sous le nom de Fer à cheval.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippocrepis comosa du grec hippos, cheval, crepis, chaussure  et comosus, chevelu, feuillu : allusion aux articles de la gousse échancrés en forme de fer à cheval.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante plutôt prostrée, à feuilles pennées (jusqu'à 8 paires de folioles), à fleurs jaunes en têtes pédonculées. Les gousses sont curieusement contournées, formant comme une série de fers à cheval accolés les uns aux autres.
 Cette plante est la seule nourriture de la chenille du papillon Argus bleu-nacré.
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Fer à cheval pousse dans des pelouses sèches sur substrat calcaire.
 </t>
@@ -606,7 +624,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : ombelle simple
